--- a/DATA_goal/Junction_Flooding_374.xlsx
+++ b/DATA_goal/Junction_Flooding_374.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.55</v>
+        <v>25.54</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.45</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.08</v>
+        <v>30.84</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.37</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.97</v>
+        <v>129.73</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.5</v>
+        <v>25.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.7</v>
+        <v>26.97</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>59.56</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>232.84</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>2.07</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.21</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>2.92</v>
+        <v>29.2</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.35</v>
+        <v>53.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.15</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_374.xlsx
+++ b/DATA_goal/Junction_Flooding_374.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.79861111111</v>
+        <v>45055.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.80555555555</v>
+        <v>45055.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.08</v>
+        <v>5.631</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.24</v>
+        <v>3.763</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.97</v>
+        <v>12.496</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.7</v>
+        <v>9.102</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.62</v>
+        <v>4.309</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.91</v>
+        <v>19.292</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.94</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>2.805</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.78</v>
+        <v>3.875</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.5</v>
+        <v>4.939</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.8</v>
+        <v>5.359</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.72</v>
+        <v>1.454</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.49</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.09</v>
+        <v>6.196</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>4.246</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.701</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.57</v>
+        <v>61.369</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.2</v>
+        <v>12.783</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.52</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.43</v>
+        <v>8.135999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.56</v>
+        <v>4.113</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>1.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.35</v>
+        <v>9.505000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.8</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.06</v>
+        <v>3.488</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.02</v>
+        <v>4.109</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.88</v>
+        <v>5.065</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.87</v>
+        <v>18.211</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>2.141</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.25</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.8125</v>
+        <v>45055.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.28</v>
+        <v>16.703</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.76</v>
+        <v>12.285</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.7</v>
+        <v>1.314</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.54</v>
+        <v>36.572</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.45</v>
+        <v>29.397</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>13.063</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.84</v>
+        <v>47.963</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.63</v>
+        <v>20.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.95</v>
+        <v>8.907999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.99</v>
+        <v>13.088</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.06</v>
+        <v>14.639</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.37</v>
+        <v>15.604</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.89</v>
+        <v>4.225</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.48</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.82</v>
+        <v>18.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.41</v>
+        <v>11.273</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.971</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.823</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.73</v>
+        <v>192.952</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.04</v>
+        <v>36.705</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.59</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.13</v>
+        <v>24.482</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.17</v>
+        <v>12.823</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.18</v>
+        <v>2.128</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.24</v>
+        <v>23.822</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.34</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.08</v>
+        <v>9.598000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.7</v>
+        <v>11.291</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.74</v>
+        <v>15.315</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.97</v>
+        <v>43.603</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.54</v>
+        <v>6.755</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.18</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.81944444445</v>
+        <v>45055.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.72</v>
+        <v>2.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.25</v>
+        <v>1.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.24</v>
+        <v>6.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.09</v>
+        <v>4.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.55</v>
+        <v>2.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.56</v>
+        <v>14.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.19</v>
+        <v>3.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.74</v>
+        <v>1.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.1</v>
+        <v>1.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.61</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.16</v>
+        <v>2.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.07</v>
+        <v>0.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.37</v>
+        <v>2.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.56</v>
+        <v>3.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.04</v>
+        <v>2.16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>232.84</v>
+        <v>27.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.1</v>
+        <v>6.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.76</v>
+        <v>2.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.02</v>
+        <v>4.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.86</v>
+        <v>2.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.07</v>
+        <v>0.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.2</v>
+        <v>6.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.87</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.01</v>
+        <v>1.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.38</v>
+        <v>2.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.64</v>
+        <v>2.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.54</v>
+        <v>13.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.15</v>
+        <v>1.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.81</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_374.xlsx
+++ b/DATA_goal/Junction_Flooding_374.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -469,13 +469,13 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45055.50694444445</v>
+        <v>40750.79861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.283</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.791</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.507</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.828</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.492</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.237</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.575</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.288</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.473</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.558999999999999</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.331</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.141</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.376</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.527</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.419</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.413</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.798</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.636</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>152.85</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.125</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.774</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.568</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.805</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>16.47</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.583</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.902</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.722</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.066</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.695</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.181</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.147</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45055.51388888889</v>
+        <v>40750.80555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.631</v>
+        <v>4.083</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.763</v>
+        <v>2.239</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.4</v>
+        <v>0.613</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.496</v>
+        <v>6.972</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.102</v>
+        <v>4.697</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.309</v>
+        <v>1.616</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>19.292</v>
+        <v>7.914</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.981</v>
+        <v>2.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.805</v>
+        <v>1.145</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.875</v>
+        <v>1.781</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.939</v>
+        <v>2.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.359</v>
+        <v>3.802</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.454</v>
+        <v>0.718</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.512</v>
+        <v>1.488</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>26.574</v>
+      </c>
+      <c r="U3" s="4" t="n">
         <v>6.196</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>4.246</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>61.369</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>12.783</v>
-      </c>
       <c r="V3" s="4" t="n">
-        <v>4.164</v>
+        <v>2.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.135999999999999</v>
+        <v>4.435</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.113</v>
+        <v>2.557</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.286</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.505000000000001</v>
+        <v>3.354</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.678</v>
+        <v>1.804</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.488</v>
+        <v>1.062</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.109</v>
+        <v>2.022</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.065</v>
+        <v>2.876</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.196</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.211</v>
+        <v>5.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.141</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.208</v>
+        <v>2.246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45055.52083333334</v>
+        <v>40750.8125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.703</v>
+        <v>12.279</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.285</v>
+        <v>8.757</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.314</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.572</v>
+        <v>25.541</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.397</v>
+        <v>20.455</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.063</v>
+        <v>8.638</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.963</v>
+        <v>30.845</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.36</v>
+        <v>13.625</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.907999999999999</v>
+        <v>5.945</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.088</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.639</v>
+        <v>10.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.604</v>
+        <v>11.371</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.225</v>
+        <v>2.893</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.159</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.6</v>
+        <v>12.817</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.273</v>
+        <v>7.414</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.971</v>
+        <v>0.478</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.823</v>
+        <v>0.246</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.952</v>
+        <v>129.727</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.705</v>
+        <v>25.044</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.146</v>
+        <v>8.593</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.482</v>
+        <v>17.134</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.823</v>
+        <v>9.167</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.128</v>
+        <v>1.179</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.822</v>
+        <v>15.236</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.728</v>
+        <v>7.342</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.598000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.291</v>
+        <v>7.699</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.315</v>
+        <v>10.739</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.745</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.603</v>
+        <v>26.967</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.755</v>
+        <v>4.541</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.185</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45055.52777777778</v>
+        <v>40750.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.79</v>
+        <v>20.722</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.92</v>
+        <v>15.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.898</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.27</v>
+        <v>44.235</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.55</v>
+        <v>36.094</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.14</v>
+        <v>15.552</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.62</v>
+        <v>59.561</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.49</v>
+        <v>24.195</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.49</v>
+        <v>10.735</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.9</v>
+        <v>16.102</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.5</v>
+        <v>17.611</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.74</v>
+        <v>19.164</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.74</v>
+        <v>5.07</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.26</v>
+        <v>15.37</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.21</v>
+        <v>22.557</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.16</v>
+        <v>13.042</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.508</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.1</v>
+        <v>232.842</v>
       </c>
       <c r="U5" s="4" t="n">
+        <v>44.103</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>14.764</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>30.024</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>15.857</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>12.867</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>11.014</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>13.382</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>18.635</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>53.536</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>8.154</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.82637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <v>6.71</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>2.61</v>
+      <c r="M6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>84.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_374.xlsx
+++ b/DATA_goal/Junction_Flooding_374.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,19 +444,19 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
@@ -469,13 +469,13 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.79861111111</v>
+        <v>45055.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.80555555555</v>
+        <v>45055.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.083</v>
+        <v>5.631</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.239</v>
+        <v>3.763</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.613</v>
+        <v>1.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.972</v>
+        <v>12.496</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.697</v>
+        <v>9.102</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.616</v>
+        <v>4.309</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.914</v>
+        <v>19.292</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.94</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.145</v>
+        <v>2.805</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.781</v>
+        <v>3.875</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.5</v>
+        <v>4.939</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.802</v>
+        <v>5.359</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.718</v>
+        <v>1.454</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.488</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.09</v>
+        <v>6.196</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.749</v>
+        <v>4.246</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.589</v>
+        <v>1.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.701</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.574</v>
+        <v>61.369</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.196</v>
+        <v>12.783</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.52</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.435</v>
+        <v>8.135999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.557</v>
+        <v>4.113</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.286</v>
+        <v>1.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.354</v>
+        <v>9.505000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.804</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.062</v>
+        <v>3.488</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.022</v>
+        <v>4.109</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.876</v>
+        <v>5.065</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.87</v>
+        <v>18.211</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>2.141</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.246</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.8125</v>
+        <v>45055.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.279</v>
+        <v>16.703</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.757</v>
+        <v>12.285</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.7</v>
+        <v>1.314</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.541</v>
+        <v>36.572</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.455</v>
+        <v>29.397</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.638</v>
+        <v>13.063</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.845</v>
+        <v>47.963</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.625</v>
+        <v>20.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.945</v>
+        <v>8.907999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.986000000000001</v>
+        <v>13.088</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.06</v>
+        <v>14.639</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.371</v>
+        <v>15.604</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.893</v>
+        <v>4.225</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.481999999999999</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.817</v>
+        <v>18.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.414</v>
+        <v>11.273</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.478</v>
+        <v>0.971</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.246</v>
+        <v>0.823</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.727</v>
+        <v>192.952</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.044</v>
+        <v>36.705</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.593</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.134</v>
+        <v>24.482</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.167</v>
+        <v>12.823</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.179</v>
+        <v>2.128</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.236</v>
+        <v>23.822</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.342</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.08</v>
+        <v>9.598000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.699</v>
+        <v>11.291</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.739</v>
+        <v>15.315</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.967</v>
+        <v>43.603</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.541</v>
+        <v>6.755</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.18</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.81944444445</v>
+        <v>45055.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.722</v>
+        <v>2.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.25</v>
+        <v>1.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.898</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.235</v>
+        <v>6.27</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.094</v>
+        <v>4.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.552</v>
+        <v>2.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.561</v>
+        <v>14.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.195</v>
+        <v>3.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.735</v>
+        <v>1.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.102</v>
+        <v>1.9</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.611</v>
+        <v>2.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.164</v>
+        <v>2.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.07</v>
+        <v>0.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.37</v>
+        <v>2.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.557</v>
+        <v>3.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.042</v>
+        <v>2.16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.508</v>
+        <v>0.32</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>232.842</v>
+        <v>27.1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.103</v>
+        <v>6.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.764</v>
+        <v>2.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.024</v>
+        <v>4.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.857</v>
+        <v>2.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.068</v>
+        <v>0.6</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.2</v>
+        <v>6.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.867</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.014</v>
+        <v>1.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.382</v>
+        <v>2.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.635</v>
+        <v>2.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.536</v>
+        <v>13.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.154</v>
+        <v>1.05</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>84.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.81</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>
